--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/36.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/36.xlsx
@@ -479,13 +479,13 @@
         <v>-0.09942421646961529</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.521243757605427</v>
+        <v>-1.491633938511339</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2128034208366738</v>
+        <v>0.1924168222163699</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1259385180542154</v>
+        <v>0.166648893465118</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.115308809478108</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.418910656539961</v>
+        <v>-1.422240213514329</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1883376727302789</v>
+        <v>0.190189391904886</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1001028881078444</v>
+        <v>0.1491947934586188</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1398278545882165</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.416771664726606</v>
+        <v>-1.459002572384642</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1681041641998388</v>
+        <v>0.149138680756358</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1354880460900597</v>
+        <v>0.1804788448103802</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1669550902889569</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.489482138363772</v>
+        <v>-1.543393026981533</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1893763676427808</v>
+        <v>0.1538832537007811</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09914104320061268</v>
+        <v>0.1590761183426141</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1883661842213121</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.476141953321939</v>
+        <v>-1.512090678009469</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3010003903771499</v>
+        <v>0.2515968155605572</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1128971941439884</v>
+        <v>0.1928925603442334</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1972363564300877</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.384201290667583</v>
+        <v>-1.380215459045034</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3578315791951805</v>
+        <v>0.3169821418699793</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03593313370718118</v>
+        <v>0.09859089475018593</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1918368367612951</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.096646258645913</v>
+        <v>-1.087174190536016</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4077084524569297</v>
+        <v>0.3884380086750748</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.01309960933794869</v>
+        <v>0.0501387961893202</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1751039697653509</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.519974797670099</v>
+        <v>-0.5930597626027885</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3644022546457873</v>
+        <v>0.3559426548592917</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.01301422044320396</v>
+        <v>0.01042381132287041</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1475962500709062</v>
       </c>
       <c r="E10" t="n">
-        <v>0.07343837596177276</v>
+        <v>-0.01697809492138959</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3316818401002842</v>
+        <v>0.3865911688658816</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.05793609812705192</v>
+        <v>-0.03309402896310353</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1044601642593092</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8188138961260999</v>
+        <v>0.5897179312087014</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1366029810871551</v>
+        <v>0.2033325725681299</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.01330881213007327</v>
+        <v>-0.0297114088898588</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.03718441595854294</v>
       </c>
       <c r="E12" t="n">
-        <v>1.576761711200235</v>
+        <v>1.288954172018391</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2555705247757554</v>
+        <v>-0.1731305965031041</v>
       </c>
       <c r="G12" t="n">
-        <v>0.08832288015713237</v>
+        <v>0.03777509415096032</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.05985742534343171</v>
       </c>
       <c r="E13" t="n">
-        <v>2.306384200125513</v>
+        <v>1.948892613704527</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.6278307304635186</v>
+        <v>-0.5397142704523732</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2023420613890911</v>
+        <v>0.14528215231728</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.1828078160705595</v>
       </c>
       <c r="E14" t="n">
-        <v>2.970252360731937</v>
+        <v>2.540638874126847</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.1637637596773</v>
+        <v>-1.089636440308048</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3667541087753278</v>
+        <v>0.2822855843318125</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.3218815586790638</v>
       </c>
       <c r="E15" t="n">
-        <v>3.673851974063082</v>
+        <v>3.235025025715036</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.750406203876591</v>
+        <v>-1.704543828509198</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4973375157464103</v>
+        <v>0.3801455271540082</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.461720114419779</v>
       </c>
       <c r="E16" t="n">
-        <v>4.29353870068723</v>
+        <v>3.871141795529423</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.265664141989967</v>
+        <v>-2.286696646606947</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6867447223864592</v>
+        <v>0.5842512121830086</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.5920215930334691</v>
       </c>
       <c r="E17" t="n">
-        <v>4.884605509475652</v>
+        <v>4.456505845990251</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.824614967623543</v>
+        <v>-2.917982844661489</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8836344358888533</v>
+        <v>0.7808481637605635</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.7093403968876614</v>
       </c>
       <c r="E18" t="n">
-        <v>5.238061860699273</v>
+        <v>4.862715456387164</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.369960902641577</v>
+        <v>-3.531993039547143</v>
       </c>
       <c r="G18" t="n">
-        <v>1.075700896679524</v>
+        <v>0.9852216039666563</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.8162234166832689</v>
       </c>
       <c r="E19" t="n">
-        <v>5.555592664221079</v>
+        <v>5.232983661144669</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.880489515827449</v>
+        <v>-4.11618695718963</v>
       </c>
       <c r="G19" t="n">
-        <v>1.317312433883792</v>
+        <v>1.237121893066988</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.9145470478046859</v>
       </c>
       <c r="E20" t="n">
-        <v>5.90897216543943</v>
+        <v>5.614068199183622</v>
       </c>
       <c r="F20" t="n">
-        <v>-4.405088694065559</v>
+        <v>-4.675821198941502</v>
       </c>
       <c r="G20" t="n">
-        <v>1.493175132055297</v>
+        <v>1.418268943981838</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.003056166975495</v>
       </c>
       <c r="E21" t="n">
-        <v>6.139444111403572</v>
+        <v>5.922677083045959</v>
       </c>
       <c r="F21" t="n">
-        <v>-4.720502767878711</v>
+        <v>-5.052871111703768</v>
       </c>
       <c r="G21" t="n">
-        <v>1.62641047412888</v>
+        <v>1.564008269849433</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.079663580499115</v>
       </c>
       <c r="E22" t="n">
-        <v>6.290977683700273</v>
+        <v>6.112191635725114</v>
       </c>
       <c r="F22" t="n">
-        <v>-4.987022855600694</v>
+        <v>-5.33283903546703</v>
       </c>
       <c r="G22" t="n">
-        <v>1.821956532380398</v>
+        <v>1.758183836340298</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.140753750750446</v>
       </c>
       <c r="E23" t="n">
-        <v>6.37223863530477</v>
+        <v>6.294722596655506</v>
       </c>
       <c r="F23" t="n">
-        <v>-5.225788807887595</v>
+        <v>-5.546178614581658</v>
       </c>
       <c r="G23" t="n">
-        <v>1.932982222930878</v>
+        <v>1.887100330101828</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.185128237393417</v>
       </c>
       <c r="E24" t="n">
-        <v>6.480109206194432</v>
+        <v>6.479124794222161</v>
       </c>
       <c r="F24" t="n">
-        <v>-5.338743067617951</v>
+        <v>-5.638126291323796</v>
       </c>
       <c r="G24" t="n">
-        <v>2.015336762308784</v>
+        <v>1.969862296491802</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.211164210588318</v>
       </c>
       <c r="E25" t="n">
-        <v>6.493223720585869</v>
+        <v>6.530304458049444</v>
       </c>
       <c r="F25" t="n">
-        <v>-5.353531814267061</v>
+        <v>-5.663925478509731</v>
       </c>
       <c r="G25" t="n">
-        <v>2.074350247308219</v>
+        <v>2.029561332331902</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.219164467985285</v>
       </c>
       <c r="E26" t="n">
-        <v>6.541551395328677</v>
+        <v>6.576731619963506</v>
       </c>
       <c r="F26" t="n">
-        <v>-5.353606224589624</v>
+        <v>-5.636193300219012</v>
       </c>
       <c r="G26" t="n">
-        <v>2.098540921189401</v>
+        <v>2.035367777174544</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.210218459020505</v>
       </c>
       <c r="E27" t="n">
-        <v>6.439747095489952</v>
+        <v>6.515072299068337</v>
       </c>
       <c r="F27" t="n">
-        <v>-5.341474597368768</v>
+        <v>-5.642058144966452</v>
       </c>
       <c r="G27" t="n">
-        <v>2.100846421347508</v>
+        <v>2.04528081793373</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.186340321101605</v>
       </c>
       <c r="E28" t="n">
-        <v>6.352328384733007</v>
+        <v>6.477873236993474</v>
       </c>
       <c r="F28" t="n">
-        <v>-5.250272548653953</v>
+        <v>-5.521910785734867</v>
       </c>
       <c r="G28" t="n">
-        <v>2.067687473835423</v>
+        <v>2.004562513554029</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.14929203880684</v>
       </c>
       <c r="E29" t="n">
-        <v>6.257221013924975</v>
+        <v>6.402038139729327</v>
       </c>
       <c r="F29" t="n">
-        <v>-5.104793048994654</v>
+        <v>-5.362645553979369</v>
       </c>
       <c r="G29" t="n">
-        <v>1.988947324387926</v>
+        <v>1.918557598925786</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.101550370537685</v>
       </c>
       <c r="E30" t="n">
-        <v>6.115537660557755</v>
+        <v>6.313992430516684</v>
       </c>
       <c r="F30" t="n">
-        <v>-4.914937550657195</v>
+        <v>-5.183958618114183</v>
       </c>
       <c r="G30" t="n">
-        <v>1.945699069041074</v>
+        <v>1.893929611919376</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.045167052803737</v>
       </c>
       <c r="E31" t="n">
-        <v>5.95528710194897</v>
+        <v>6.229211016765998</v>
       </c>
       <c r="F31" t="n">
-        <v>-4.783722875785678</v>
+        <v>-5.028096133814262</v>
       </c>
       <c r="G31" t="n">
-        <v>1.83705450881262</v>
+        <v>1.785235038195428</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.9826569607014924</v>
       </c>
       <c r="E32" t="n">
-        <v>5.768317138333206</v>
+        <v>6.071365985306307</v>
       </c>
       <c r="F32" t="n">
-        <v>-4.53582793576955</v>
+        <v>-4.786243068022</v>
       </c>
       <c r="G32" t="n">
-        <v>1.775275033544132</v>
+        <v>1.752788478033785</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.9162008970338332</v>
       </c>
       <c r="E33" t="n">
-        <v>5.504748456766007</v>
+        <v>5.829066457578667</v>
       </c>
       <c r="F33" t="n">
-        <v>-4.382021189110609</v>
+        <v>-4.624615918445795</v>
       </c>
       <c r="G33" t="n">
-        <v>1.682915965305527</v>
+        <v>1.656571051594072</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.8474428873539508</v>
       </c>
       <c r="E34" t="n">
-        <v>5.282533616923681</v>
+        <v>5.617747240705767</v>
       </c>
       <c r="F34" t="n">
-        <v>-4.174611563775665</v>
+        <v>-4.408947357227006</v>
       </c>
       <c r="G34" t="n">
-        <v>1.543098969209156</v>
+        <v>1.518150773847453</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.7786660915792094</v>
       </c>
       <c r="E35" t="n">
-        <v>5.022983092774898</v>
+        <v>5.397191385104194</v>
       </c>
       <c r="F35" t="n">
-        <v>-4.042333187243899</v>
+        <v>-4.27857467784974</v>
       </c>
       <c r="G35" t="n">
-        <v>1.479404952936356</v>
+        <v>1.475594168548034</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.7108292538623697</v>
       </c>
       <c r="E36" t="n">
-        <v>4.743364958519751</v>
+        <v>5.167733127304808</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.878969288540654</v>
+        <v>-4.080466342835203</v>
       </c>
       <c r="G36" t="n">
-        <v>1.44218942300322</v>
+        <v>1.435108853866852</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.6460354591105569</v>
       </c>
       <c r="E37" t="n">
-        <v>4.420599815750093</v>
+        <v>4.851135502418426</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.751737090727964</v>
+        <v>-3.962709567696132</v>
       </c>
       <c r="G37" t="n">
-        <v>1.348656867382552</v>
+        <v>1.35698472430287</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.5840444619281253</v>
       </c>
       <c r="E38" t="n">
-        <v>4.129560306902161</v>
+        <v>4.569437538655568</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.661055304350416</v>
+        <v>-3.881393723230727</v>
       </c>
       <c r="G38" t="n">
-        <v>1.25237356950975</v>
+        <v>1.272409463740924</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.5255073789089115</v>
       </c>
       <c r="E39" t="n">
-        <v>3.86619655868235</v>
+        <v>4.29803259623351</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.61887502010855</v>
+        <v>-3.865311944746912</v>
       </c>
       <c r="G39" t="n">
-        <v>1.167504327181611</v>
+        <v>1.214278533960743</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.4693682750460806</v>
       </c>
       <c r="E40" t="n">
-        <v>3.528157782325567</v>
+        <v>3.982236407116375</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.53923523766285</v>
+        <v>-3.763807725881146</v>
       </c>
       <c r="G40" t="n">
-        <v>1.082682048745582</v>
+        <v>1.124740348852098</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.4151477739358289</v>
       </c>
       <c r="E41" t="n">
-        <v>3.317990095690368</v>
+        <v>3.781182155233145</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.448701662009752</v>
+        <v>-3.676236229994675</v>
       </c>
       <c r="G41" t="n">
-        <v>1.025078700350788</v>
+        <v>1.06660880915124</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.3625673093291331</v>
       </c>
       <c r="E42" t="n">
-        <v>3.021952896817163</v>
+        <v>3.473280779355837</v>
       </c>
       <c r="F42" t="n">
-        <v>-3.372516470277152</v>
+        <v>-3.657819065239591</v>
       </c>
       <c r="G42" t="n">
-        <v>1.004227952095479</v>
+        <v>1.044261925475868</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.3110227732364385</v>
       </c>
       <c r="E43" t="n">
-        <v>2.707632715737758</v>
+        <v>3.163859481152073</v>
       </c>
       <c r="F43" t="n">
-        <v>-3.281384562440164</v>
+        <v>-3.567465416186133</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9153917856857712</v>
+        <v>0.9788332947983971</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.2609447130201639</v>
       </c>
       <c r="E44" t="n">
-        <v>2.4852849131879</v>
+        <v>2.944405142292708</v>
       </c>
       <c r="F44" t="n">
-        <v>-3.244321817636553</v>
+        <v>-3.514155299434969</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9036349547207756</v>
+        <v>0.9624197194664301</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.2113452593627987</v>
       </c>
       <c r="E45" t="n">
-        <v>2.228418040016809</v>
+        <v>2.665249327910535</v>
       </c>
       <c r="F45" t="n">
-        <v>-3.150766389990507</v>
+        <v>-3.416037970087186</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8297418448913949</v>
+        <v>0.8802609646257598</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.1629294575486735</v>
       </c>
       <c r="E46" t="n">
-        <v>2.084040057099716</v>
+        <v>2.480911781935616</v>
       </c>
       <c r="F46" t="n">
-        <v>-3.063517542142035</v>
+        <v>-3.354430187489203</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7923476081999714</v>
+        <v>0.8632514967926099</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.1153121854970335</v>
       </c>
       <c r="E47" t="n">
-        <v>1.871353398069547</v>
+        <v>2.249455423999203</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.977071044943826</v>
+        <v>-3.255787411478401</v>
       </c>
       <c r="G47" t="n">
-        <v>0.7138191012273055</v>
+        <v>0.7596101158755194</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.06930073601226157</v>
       </c>
       <c r="E48" t="n">
-        <v>1.74111581612218</v>
+        <v>2.093773781179938</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.925141483644481</v>
+        <v>-3.221241504347391</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6473597046061301</v>
+        <v>0.6766096705009367</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.02495809798867977</v>
       </c>
       <c r="E49" t="n">
-        <v>1.556741674906656</v>
+        <v>1.878796260087903</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.88131929294081</v>
+        <v>-3.155696378820661</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5648703727586623</v>
+        <v>0.5938501437936695</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.01752981363834081</v>
       </c>
       <c r="E50" t="n">
-        <v>1.467316935043886</v>
+        <v>1.757899003384257</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.794584913183176</v>
+        <v>-3.082072244009726</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5435365673273687</v>
+        <v>0.5367249732094463</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.05789750931262073</v>
       </c>
       <c r="E51" t="n">
-        <v>1.367371673427889</v>
+        <v>1.612095635845603</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.731344677893877</v>
+        <v>-3.008152907591246</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4567826701080784</v>
+        <v>0.4646299095351189</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.09679511662377915</v>
       </c>
       <c r="E52" t="n">
-        <v>1.317854043444745</v>
+        <v>1.528402320582235</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.640919058200563</v>
+        <v>-2.896606344782823</v>
       </c>
       <c r="G52" t="n">
-        <v>0.381838057031984</v>
+        <v>0.3798509354671389</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.1338864899780264</v>
       </c>
       <c r="E53" t="n">
-        <v>1.258174525066301</v>
+        <v>1.413062661085116</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.606292031619545</v>
+        <v>-2.857475054004022</v>
       </c>
       <c r="G53" t="n">
-        <v>0.3791348885926367</v>
+        <v>0.3780748464564485</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.1698205845462953</v>
       </c>
       <c r="E54" t="n">
-        <v>1.174650157830391</v>
+        <v>1.261635824906846</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.557140963963127</v>
+        <v>-2.809426722931163</v>
       </c>
       <c r="G54" t="n">
-        <v>0.324126752677406</v>
+        <v>0.3114141760119463</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.2041834815438117</v>
       </c>
       <c r="E55" t="n">
-        <v>1.143086152888003</v>
+        <v>1.190595314082616</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.528783921939079</v>
+        <v>-2.768645596721758</v>
       </c>
       <c r="G55" t="n">
-        <v>0.2934245656512623</v>
+        <v>0.2783082915987384</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.2376614665940206</v>
       </c>
       <c r="E56" t="n">
-        <v>1.123924884907286</v>
+        <v>1.129898448015356</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.504623134171058</v>
+        <v>-2.731405060040875</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2630438068217648</v>
+        <v>0.2372795375945733</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.2704622876365713</v>
       </c>
       <c r="E57" t="n">
-        <v>1.005667364892605</v>
+        <v>0.9816230719738428</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.472898110170008</v>
+        <v>-2.713894237411438</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2185860787729221</v>
+        <v>0.1891927815190797</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.3032874373709233</v>
       </c>
       <c r="E58" t="n">
-        <v>1.005145272793308</v>
+        <v>0.9346969949462006</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.498057948006542</v>
+        <v>-2.730454193705825</v>
       </c>
       <c r="G58" t="n">
-        <v>0.2039845777715736</v>
+        <v>0.1605210204258302</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.3364950408854094</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9703084334994895</v>
+        <v>0.8482761144164148</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.434704877392045</v>
+        <v>-2.671160145195085</v>
       </c>
       <c r="G59" t="n">
-        <v>0.2042578222347567</v>
+        <v>0.1516167884659853</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.3696397571318024</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9589712279600966</v>
+        <v>0.778493869948316</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.459458508057865</v>
+        <v>-2.695445966701839</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1759276167204862</v>
+        <v>0.1033616942837092</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.4027421188414984</v>
       </c>
       <c r="E61" t="n">
-        <v>1.043439752403612</v>
+        <v>0.8011823092026671</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.480559933711317</v>
+        <v>-2.700191759487616</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1888310985577681</v>
+        <v>0.10201864895351</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.434686990425628</v>
       </c>
       <c r="E62" t="n">
-        <v>1.050986910857692</v>
+        <v>0.75414461669118</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.470232756812619</v>
+        <v>-2.681134178021946</v>
       </c>
       <c r="G62" t="n">
-        <v>0.1523401543886085</v>
+        <v>0.05514258542136127</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.4653227107443902</v>
       </c>
       <c r="E63" t="n">
-        <v>1.100019653902822</v>
+        <v>0.7401481570011657</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.47995733208269</v>
+        <v>-2.677460015865216</v>
       </c>
       <c r="G63" t="n">
-        <v>0.1254078870654445</v>
+        <v>0.02549800084869866</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.4938441466936836</v>
       </c>
       <c r="E64" t="n">
-        <v>1.168458853040722</v>
+        <v>0.7371009933001323</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.545055385753364</v>
+        <v>-2.757907333286931</v>
       </c>
       <c r="G64" t="n">
-        <v>0.1554379415058119</v>
+        <v>0.05948705040183769</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.5203918398234003</v>
       </c>
       <c r="E65" t="n">
-        <v>1.19744228359979</v>
+        <v>0.7211369295069286</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.678884180645423</v>
+        <v>-2.866997135609412</v>
       </c>
       <c r="G65" t="n">
-        <v>0.1137169275335378</v>
+        <v>-0.005748235421104348</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.5444876736009179</v>
       </c>
       <c r="E66" t="n">
-        <v>1.231602720863095</v>
+        <v>0.7039249680090984</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.752985883346251</v>
+        <v>-2.92887602794821</v>
       </c>
       <c r="G66" t="n">
-        <v>0.1116309988190594</v>
+        <v>-0.02408611048821146</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.5656683412083816</v>
       </c>
       <c r="E67" t="n">
-        <v>1.268404114656719</v>
+        <v>0.6449932123803476</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.797044113351824</v>
+        <v>-2.935640048253346</v>
       </c>
       <c r="G67" t="n">
-        <v>0.07154091273640956</v>
+        <v>-0.0751999028824057</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.5838336616906473</v>
       </c>
       <c r="E68" t="n">
-        <v>1.29488687044112</v>
+        <v>0.6473182300001112</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.886668907196567</v>
+        <v>-3.003916093610215</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03089457899656548</v>
+        <v>-0.1412225962990295</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.5983355096682273</v>
       </c>
       <c r="E69" t="n">
-        <v>1.281950452887293</v>
+        <v>0.6041779306130444</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.926782170264933</v>
+        <v>-3.028082980585003</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05822634436299945</v>
+        <v>-0.1219033588630347</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.6085744785285879</v>
       </c>
       <c r="E70" t="n">
-        <v>1.287201869914094</v>
+        <v>0.5761209695619569</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.980685129913897</v>
+        <v>-3.09550056258935</v>
       </c>
       <c r="G70" t="n">
-        <v>0.05603428945076693</v>
+        <v>-0.1352533026356962</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.6140392855121199</v>
       </c>
       <c r="E71" t="n">
-        <v>1.27755292480794</v>
+        <v>0.5452614230012122</v>
       </c>
       <c r="F71" t="n">
-        <v>-3.044441053135386</v>
+        <v>-3.124956071752221</v>
       </c>
       <c r="G71" t="n">
-        <v>0.04869023458204357</v>
+        <v>-0.1614853810219535</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.614655303825705</v>
       </c>
       <c r="E72" t="n">
-        <v>1.271811131557034</v>
+        <v>0.5066156290811017</v>
       </c>
       <c r="F72" t="n">
-        <v>-3.117592194461503</v>
+        <v>-3.188472906068425</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.003762333697612672</v>
+        <v>-0.2315475790806796</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.6101171939200644</v>
       </c>
       <c r="E73" t="n">
-        <v>1.304876151284899</v>
+        <v>0.5133235366839769</v>
       </c>
       <c r="F73" t="n">
-        <v>-3.178604999439318</v>
+        <v>-3.240426559234502</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.06520330299050503</v>
+        <v>-0.3162063987753403</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.6002885231282848</v>
       </c>
       <c r="E74" t="n">
-        <v>1.28514887691616</v>
+        <v>0.4548004279086472</v>
       </c>
       <c r="F74" t="n">
-        <v>-3.226529516614797</v>
+        <v>-3.277571948289812</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.09014234954205638</v>
+        <v>-0.3579609583848356</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.5840671072141894</v>
       </c>
       <c r="E75" t="n">
-        <v>1.274292898790722</v>
+        <v>0.4635338820790026</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.231152410384209</v>
+        <v>-3.269226403669868</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.08330391891435715</v>
+        <v>-0.3460254206615528</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.5608606560276755</v>
       </c>
       <c r="E76" t="n">
-        <v>1.284803661813121</v>
+        <v>0.4731907561539547</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.287045846161739</v>
+        <v>-3.324310779669692</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.09612872098433857</v>
+        <v>-0.368202746388789</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.5293586957362305</v>
       </c>
       <c r="E77" t="n">
-        <v>1.183068283010868</v>
+        <v>0.4045661411303237</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.311261526790668</v>
+        <v>-3.347518871340633</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.1158999096418036</v>
+        <v>-0.3874469635815437</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.4896969232980939</v>
       </c>
       <c r="E78" t="n">
-        <v>1.222727155175057</v>
+        <v>0.4533957805900964</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.295794853309352</v>
+        <v>-3.332348924268555</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.08808264741667819</v>
+        <v>-0.3604738315730376</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.4422170738744937</v>
       </c>
       <c r="E79" t="n">
-        <v>1.230520721582544</v>
+        <v>0.4869566658281583</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.253564860532332</v>
+        <v>-3.296497176968627</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.05364713592815958</v>
+        <v>-0.3160417201926183</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3884830398777424</v>
       </c>
       <c r="E80" t="n">
-        <v>1.275065668288161</v>
+        <v>0.5502969281084441</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.218864948430443</v>
+        <v>-3.2554162747466</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.06765030474561824</v>
+        <v>-0.3268757411736941</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3303873970031093</v>
       </c>
       <c r="E81" t="n">
-        <v>1.415331566002619</v>
+        <v>0.7247000861004909</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.106677663951097</v>
+        <v>-3.139068416370817</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.09013625033528889</v>
+        <v>-0.3468896782605049</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2697764118957685</v>
       </c>
       <c r="E82" t="n">
-        <v>1.492726840357887</v>
+        <v>0.8182850948993593</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.98958783707205</v>
+        <v>-3.011864274909258</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.05908335892001502</v>
+        <v>-0.3096668292792477</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2091517908569174</v>
       </c>
       <c r="E83" t="n">
-        <v>1.662561692481091</v>
+        <v>1.01135670496531</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.850673828537604</v>
+        <v>-2.869186140918261</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.0246399184626987</v>
+        <v>-0.2729105696157026</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.149585866288232</v>
       </c>
       <c r="E84" t="n">
-        <v>1.87627606785158</v>
+        <v>1.29201719365702</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.759673053646117</v>
+        <v>-2.774401418148229</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.05703829489087878</v>
+        <v>-0.3091660844036375</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.09304374170909299</v>
       </c>
       <c r="E85" t="n">
-        <v>2.039662838580203</v>
+        <v>1.511959469057784</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.552734287073622</v>
+        <v>-2.561095079710484</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.009050345965018334</v>
+        <v>-0.2605377187671916</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.04032397378736595</v>
       </c>
       <c r="E86" t="n">
-        <v>2.210282658614382</v>
+        <v>1.772740813132244</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.362583587128617</v>
+        <v>-2.36048424015925</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.01126618778364403</v>
+        <v>-0.2778997207515018</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.007656297027193348</v>
       </c>
       <c r="E87" t="n">
-        <v>2.331933777274489</v>
+        <v>1.946934768332166</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.094922947741116</v>
+        <v>-2.107969151016757</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.0007029715830444129</v>
+        <v>-0.2659843104105517</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.05017038933230074</v>
       </c>
       <c r="E88" t="n">
-        <v>2.444860590574392</v>
+        <v>2.147692598766497</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.790432248288183</v>
+        <v>-1.797389003527171</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01706340780994977</v>
+        <v>-0.2238198841062817</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.08598046345954907</v>
       </c>
       <c r="E89" t="n">
-        <v>2.487622129221199</v>
+        <v>2.224626773090143</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.586350960086252</v>
+        <v>-1.573596298894097</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.02433617796567816</v>
+        <v>-0.2428890540648098</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1126863997858337</v>
       </c>
       <c r="E90" t="n">
-        <v>2.555418471965806</v>
+        <v>2.358031063191185</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.364464257568016</v>
+        <v>-1.392556594018355</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.03718171733866901</v>
+        <v>-0.2548343505189205</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1281966996389231</v>
       </c>
       <c r="E91" t="n">
-        <v>2.556561463314031</v>
+        <v>2.383073186337107</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.010394936064263</v>
+        <v>-1.078784731627346</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.01608639089198393</v>
+        <v>-0.2126815127075087</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.130679108951326</v>
       </c>
       <c r="E92" t="n">
-        <v>2.481888874859767</v>
+        <v>2.314690099901468</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.8175331387111135</v>
+        <v>-0.9197290076243111</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.02732478928174364</v>
+        <v>-0.2123545952247717</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1210328516866169</v>
       </c>
       <c r="E93" t="n">
-        <v>2.411333250973551</v>
+        <v>2.250020210545872</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.5279049863091773</v>
+        <v>-0.6915064491160158</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.0897300431645747</v>
+        <v>-0.2188106055881499</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.1011023475879969</v>
       </c>
       <c r="E94" t="n">
-        <v>2.348673660168517</v>
+        <v>2.181989658261393</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2740431923124238</v>
+        <v>-0.4565802524495826</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1189190169917065</v>
+        <v>-0.195383552394257</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.07418123740891233</v>
       </c>
       <c r="E95" t="n">
-        <v>2.207263551264479</v>
+        <v>2.028153635409968</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.05808125924811797</v>
+        <v>-0.265364021082299</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1567450775222675</v>
+        <v>-0.1976872227903344</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.04438527212333026</v>
       </c>
       <c r="E96" t="n">
-        <v>2.054261899898845</v>
+        <v>1.882264878976569</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1062661365463835</v>
+        <v>-0.1226303843097184</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.2016901321918319</v>
+        <v>-0.2070385266062357</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.01493504704867387</v>
       </c>
       <c r="E97" t="n">
-        <v>1.89455905005778</v>
+        <v>1.736337087619859</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2461910886025392</v>
+        <v>0.04633350108708906</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.2106126617719793</v>
+        <v>-0.1997127693578147</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.01123583446674116</v>
       </c>
       <c r="E98" t="n">
-        <v>1.70154355269409</v>
+        <v>1.56620703388911</v>
       </c>
       <c r="F98" t="n">
-        <v>0.347301908631802</v>
+        <v>0.1577574698394848</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.3267879125962423</v>
+        <v>-0.2711125234606494</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.03066977274447246</v>
       </c>
       <c r="E99" t="n">
-        <v>1.554053754484228</v>
+        <v>1.461740430296379</v>
       </c>
       <c r="F99" t="n">
-        <v>0.4128982674953789</v>
+        <v>0.2690814116008938</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.3131567953916</v>
+        <v>-0.2493194477597645</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.04419976484773953</v>
       </c>
       <c r="E100" t="n">
-        <v>1.38806262246589</v>
+        <v>1.311144306079839</v>
       </c>
       <c r="F100" t="n">
-        <v>0.4496173219976422</v>
+        <v>0.3214925052745312</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.3953881307928034</v>
+        <v>-0.3141893910973345</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.0528540986340364</v>
       </c>
       <c r="E101" t="n">
-        <v>1.281810781052318</v>
+        <v>1.252393086971406</v>
       </c>
       <c r="F101" t="n">
-        <v>0.4736286791998597</v>
+        <v>0.3857677759522718</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.3996661144195143</v>
+        <v>-0.3299875564664627</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.06250102736652711</v>
       </c>
       <c r="E102" t="n">
-        <v>1.10010443287689</v>
+        <v>1.13065352981317</v>
       </c>
       <c r="F102" t="n">
-        <v>0.4472319222308805</v>
+        <v>0.4025155878150967</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.4391255425224067</v>
+        <v>-0.3669493593980717</v>
       </c>
     </row>
   </sheetData>
